--- a/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
+++ b/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\1.4\Mark That Pawn - 3056996662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF4875-71F5-4A83-8F05-7C96C54508E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D7BEF-497F-4BE3-8B3C-C4D883E31091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="703">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2103,6 +2103,103 @@
   </si>
   <si>
     <t>폰의 사상 아이콘 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTP.OnlyWhenDraftedTT 'Will only apply when pawns are drafted' (English file: Text.xml:62)</t>
+  </si>
+  <si>
+    <t>MTP.OrLogic 'Or-logic' (English file: Text.xml:63)</t>
+  </si>
+  <si>
+    <t>MTP.OrLogicTT 'Will apply the rule if any of the selected things are correct, instead of when all are correct.' (English file: Text.xml:64)</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.TDFindLib 'Advanced rule (TD Find Lib)' (English file: Text.xml:141)</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.Mechanoid 'Specific mechanoid' (English file: Text.xml:142)</t>
+  </si>
+  <si>
+    <t>MTP.TDFindLibRuleLabel 'Mark That Pawn-rule' (English file: Text.xml:143)</t>
+  </si>
+  <si>
+    <t>MTP.RequiresAnActiveGame 'Requires an active game' (English file: Text.xml:144)</t>
+  </si>
+  <si>
+    <t>MTP.EditTdRule 'Edit' (English file: Text.xml:145)</t>
+  </si>
+  <si>
+    <t>MTP.OnlyWhenDraftedTT</t>
+  </si>
+  <si>
+    <t>MTP.OrLogicTT</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.TDFindLib</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.Mechanoid</t>
+  </si>
+  <si>
+    <t>MTP.TDFindLibRuleLabel</t>
+  </si>
+  <si>
+    <t>MTP.RequiresAnActiveGame</t>
+  </si>
+  <si>
+    <t>MTP.EditTdRule</t>
+  </si>
+  <si>
+    <t>MTP.OrLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will only apply when pawns are drafted</t>
+  </si>
+  <si>
+    <t>Or-logic</t>
+  </si>
+  <si>
+    <t>Will apply the rule if any of the selected things are correct, instead of when all are correct.</t>
+  </si>
+  <si>
+    <t>Advanced rule (TD Find Lib)</t>
+  </si>
+  <si>
+    <t>Specific mechanoid</t>
+  </si>
+  <si>
+    <t>Mark That Pawn-rule</t>
+  </si>
+  <si>
+    <t>Requires an active game</t>
+  </si>
+  <si>
+    <t>폰을 소집할 때만 적용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or-논리</t>
+  </si>
+  <si>
+    <t>모든 항목이 맞을 때가 아니라 선택한 항목 중 하나라도 맞으면 규칙을 적용합니다.</t>
+  </si>
+  <si>
+    <t>고급 규칙(TD Find Lib)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 메카노이드</t>
+  </si>
+  <si>
+    <t>Mark That Pawn-규칙</t>
+  </si>
+  <si>
+    <t>게임이 활성화되어 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>Edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2476,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5227,7 +5324,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>648</v>
       </c>
@@ -5244,7 +5341,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>650</v>
       </c>
@@ -5261,7 +5358,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>652</v>
       </c>
@@ -5278,7 +5375,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>654</v>
       </c>
@@ -5295,7 +5392,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>656</v>
       </c>
@@ -5312,7 +5409,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>657</v>
       </c>
@@ -5329,7 +5426,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>659</v>
       </c>
@@ -5344,6 +5441,206 @@
       </c>
       <c r="E167" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" t="s">
+        <v>680</v>
+      </c>
+      <c r="D168" t="s">
+        <v>688</v>
+      </c>
+      <c r="E168" t="s">
+        <v>695</v>
+      </c>
+      <c r="F168" t="s">
+        <v>672</v>
+      </c>
+      <c r="G168" t="str">
+        <f>LEFT(F168,FIND(" ",F168)-1)</f>
+        <v>MTP.OnlyWhenDraftedTT</v>
+      </c>
+      <c r="H168" t="str">
+        <f>MID(F168,FIND("'",F168)+1,FIND("'",F168,FIND("'",F168)+1)-FIND("'",F168)-1)</f>
+        <v>Will only apply when pawns are drafted</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C169" t="s">
+        <v>687</v>
+      </c>
+      <c r="D169" t="s">
+        <v>689</v>
+      </c>
+      <c r="E169" t="s">
+        <v>696</v>
+      </c>
+      <c r="F169" t="s">
+        <v>673</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" ref="G169:G175" si="0">LEFT(F169,FIND(" ",F169)-1)</f>
+        <v>MTP.OrLogic</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" ref="H169:H175" si="1">MID(F169,FIND("'",F169)+1,FIND("'",F169,FIND("'",F169)+1)-FIND("'",F169)-1)</f>
+        <v>Or-logic</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C170" t="s">
+        <v>681</v>
+      </c>
+      <c r="D170" t="s">
+        <v>690</v>
+      </c>
+      <c r="E170" t="s">
+        <v>697</v>
+      </c>
+      <c r="F170" t="s">
+        <v>674</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.OrLogicTT</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="1"/>
+        <v>Will apply the rule if any of the selected things are correct, instead of when all are correct.</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C171" t="s">
+        <v>682</v>
+      </c>
+      <c r="D171" t="s">
+        <v>691</v>
+      </c>
+      <c r="E171" t="s">
+        <v>698</v>
+      </c>
+      <c r="F171" t="s">
+        <v>675</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.AutomaticType.TDFindLib</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="1"/>
+        <v>Advanced rule (TD Find Lib)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C172" t="s">
+        <v>683</v>
+      </c>
+      <c r="D172" t="s">
+        <v>692</v>
+      </c>
+      <c r="E172" t="s">
+        <v>699</v>
+      </c>
+      <c r="F172" t="s">
+        <v>676</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.AutomaticType.Mechanoid</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="1"/>
+        <v>Specific mechanoid</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C173" t="s">
+        <v>684</v>
+      </c>
+      <c r="D173" t="s">
+        <v>693</v>
+      </c>
+      <c r="E173" t="s">
+        <v>700</v>
+      </c>
+      <c r="F173" t="s">
+        <v>677</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.TDFindLibRuleLabel</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="1"/>
+        <v>Mark That Pawn-rule</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C174" t="s">
+        <v>685</v>
+      </c>
+      <c r="D174" t="s">
+        <v>694</v>
+      </c>
+      <c r="E174" t="s">
+        <v>701</v>
+      </c>
+      <c r="F174" t="s">
+        <v>678</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.RequiresAnActiveGame</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="1"/>
+        <v>Requires an active game</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C175" t="s">
+        <v>686</v>
+      </c>
+      <c r="D175" t="s">
+        <v>702</v>
+      </c>
+      <c r="E175" t="s">
+        <v>540</v>
+      </c>
+      <c r="F175" t="s">
+        <v>679</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="0"/>
+        <v>MTP.EditTdRule</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
+++ b/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\1.4\Mark That Pawn - 3056996662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D7BEF-497F-4BE3-8B3C-C4D883E31091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277E3AF-F512-499C-8AAB-1C89CBB2F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="711">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2201,6 +2201,30 @@
   <si>
     <t>Edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.FactionLeader</t>
+  </si>
+  <si>
+    <t>MTP.RequiresASpecificGame</t>
+  </si>
+  <si>
+    <t>MTP.IsInWrongGame</t>
+  </si>
+  <si>
+    <t>Show faction leader</t>
+  </si>
+  <si>
+    <t>Created in another save</t>
+  </si>
+  <si>
+    <t>진영 지도자 표시</t>
+  </si>
+  <si>
+    <t>활성화된 게임이 필요합니다.</t>
+  </si>
+  <si>
+    <t>다른 저장에서 생성</t>
   </si>
 </sst>
 </file>
@@ -2573,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5643,6 +5667,48 @@
         <v>Edit</v>
       </c>
     </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" t="s">
+        <v>703</v>
+      </c>
+      <c r="D176" t="s">
+        <v>706</v>
+      </c>
+      <c r="E176" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" t="s">
+        <v>704</v>
+      </c>
+      <c r="D177" t="s">
+        <v>694</v>
+      </c>
+      <c r="E177" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" t="s">
+        <v>705</v>
+      </c>
+      <c r="D178" t="s">
+        <v>707</v>
+      </c>
+      <c r="E178" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
+++ b/Data/Mlie/Mark That Pawn - 3056996662/Mark That Pawn - 3056996662.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\1.4\Mark That Pawn - 3056996662\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Mark That Pawn - 3056996662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277E3AF-F512-499C-8AAB-1C89CBB2F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060BCECA-57B1-4DD6-91B2-8A3E7508DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-04-19_삭제된 노드 목록" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,239 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lammergeier</author>
+  </authors>
+  <commentList>
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Only when drafted'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Equipped weapon'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Has relation to colonist'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn is of type'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: '^ Pawn is drafted'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: '^ Pawn is in mental state'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: '^ Pawn has temporary hediff'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn has permanent hediff'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn has any permanent bad hediff'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn is a specific animal'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn is of specified gender'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn is in specified age-range'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn is specific xenotype'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Pawn has a specific gene'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Show faction icon for pawn'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: 'Show ideology icon for pawn'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="739">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -65,6 +297,9 @@
     <t>WOW Style</t>
   </si>
   <si>
+    <t>WOW 스타일</t>
+  </si>
+  <si>
     <t>pakageID</t>
   </si>
   <si>
@@ -77,6 +312,9 @@
     <t>Markers inspired by the Raid-markers in World of Warcraft</t>
   </si>
   <si>
+    <t>월드 오브 워크래프트의 공격대 마커에서 영감을 얻은 마커</t>
+  </si>
+  <si>
     <t>Mlie.MarkThatPawn</t>
   </si>
   <si>
@@ -89,6 +327,9 @@
     <t>Numbers</t>
   </si>
   <si>
+    <t>숫자</t>
+  </si>
+  <si>
     <t>modName (folderName)</t>
   </si>
   <si>
@@ -101,6 +342,9 @@
     <t>Markers with simple numbering</t>
   </si>
   <si>
+    <t>간단하게 번호를 매길 수 있는 마커</t>
+  </si>
+  <si>
     <t>Mark That Pawn - 3056996662</t>
   </si>
   <si>
@@ -113,6 +357,9 @@
     <t>Skills</t>
   </si>
   <si>
+    <t>기술</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Skills.description</t>
   </si>
   <si>
@@ -122,6 +369,9 @@
     <t>Markers to indicate work-skills</t>
   </si>
   <si>
+    <t>업무 기술을 나타내는 마커</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Jobs.label</t>
   </si>
   <si>
@@ -131,6 +381,9 @@
     <t>Jobs</t>
   </si>
   <si>
+    <t>직업</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Jobs.description</t>
   </si>
   <si>
@@ -140,6 +393,9 @@
     <t>Markers to indicate job designations, made by [✚] Survivalmaster</t>
   </si>
   <si>
+    <t>직업 지정을 나타내는 마커, 제작자: [?] Survivalmaster</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Militar.label</t>
   </si>
   <si>
@@ -149,6 +405,9 @@
     <t>Militar</t>
   </si>
   <si>
+    <t>군대</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Militar.description</t>
   </si>
   <si>
@@ -158,6 +417,9 @@
     <t>Marker based on the united states military</t>
   </si>
   <si>
+    <t>미군을 기반으로 한 마커</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+GDI.label</t>
   </si>
   <si>
@@ -176,6 +438,9 @@
     <t>Marker based on the GDI-faction from the game Command and Conquer</t>
   </si>
   <si>
+    <t>게임 커맨드 앤 컨커의 GDI 진영을 기반으로 한 마커입니다.</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Nod.label</t>
   </si>
   <si>
@@ -194,6 +459,9 @@
     <t>Marker based on the Nod-faction from the game Command and Conquer</t>
   </si>
   <si>
+    <t>게임 커맨드 앤 컨커의 Nod 진영을 기반으로 한 마커입니다.</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+XCOM.label</t>
   </si>
   <si>
@@ -212,6 +480,9 @@
     <t>Marker based on the game XCOM, made by Botaxalim</t>
   </si>
   <si>
+    <t>게임 XCOM을 기반으로 한 마커, 제작자: Botaxalim</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+XCOMTwo.label</t>
   </si>
   <si>
@@ -230,6 +501,9 @@
     <t>Marker based on the game XCOM 2, cutesy of Lekoda</t>
   </si>
   <si>
+    <t>레코다의 게임 XCOM 2를 기반으로 한 귀여운 마커</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Weapons.label</t>
   </si>
   <si>
@@ -239,6 +513,9 @@
     <t>Weapons</t>
   </si>
   <si>
+    <t>무기</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Weapons.description</t>
   </si>
   <si>
@@ -248,6 +525,9 @@
     <t>Generic weapon-types, made by max.icons on flaticon.com</t>
   </si>
   <si>
+    <t>일반 무기 유형, 제작자: flaticon.com의 max.icons</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+XCOMMedieval.label</t>
   </si>
   <si>
@@ -257,6 +537,9 @@
     <t>XCOM Medieval</t>
   </si>
   <si>
+    <t>XCOM 중세</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+XCOMMedieval.description</t>
   </si>
   <si>
@@ -266,6 +549,9 @@
     <t>Marker based on the game XCOM but in a medieval style, made by Botaxalim</t>
   </si>
   <si>
+    <t>XCOM 게임을 기반으로 한 중세 스타일의 마커, 제작자: Botaxalim</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Symbols.label</t>
   </si>
   <si>
@@ -275,6 +561,9 @@
     <t>Symbols</t>
   </si>
   <si>
+    <t>심볼</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Symbols.description</t>
   </si>
   <si>
@@ -284,6 +573,9 @@
     <t>Markers with generic symbols</t>
   </si>
   <si>
+    <t>일반적인 기호를 사용한 마커</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Ideology.label</t>
   </si>
   <si>
@@ -293,6 +585,9 @@
     <t>Ideology</t>
   </si>
   <si>
+    <t>이데올로기</t>
+  </si>
+  <si>
     <t>MarkThatPawn.MarkerDef+Ideology.description</t>
   </si>
   <si>
@@ -302,6 +597,9 @@
     <t>Markers from Ideology, made by Yoann</t>
   </si>
   <si>
+    <t>이데올로기의 마커, 제작자: Yoann</t>
+  </si>
+  <si>
     <t>Keyed+MTP.CurrentModVersion</t>
   </si>
   <si>
@@ -314,6 +612,9 @@
     <t>Installed mod-version: {0}</t>
   </si>
   <si>
+    <t>설치된 모드 버전: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DefaultMarkerSet</t>
   </si>
   <si>
@@ -323,6 +624,9 @@
     <t>Default marker-set: {0}</t>
   </si>
   <si>
+    <t>기본 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ColonistMarkerSet</t>
   </si>
   <si>
@@ -332,6 +636,9 @@
     <t>Colonist marker-set: {0}</t>
   </si>
   <si>
+    <t>정착민 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ColonistDiffer</t>
   </si>
   <si>
@@ -341,6 +648,9 @@
     <t>Different set for colonists</t>
   </si>
   <si>
+    <t xml:space="preserve">    정착민을 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForColonist</t>
   </si>
   <si>
@@ -350,6 +660,9 @@
     <t>Show gizmo on colonists</t>
   </si>
   <si>
+    <t>정착민 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PrisonerMarkerSet</t>
   </si>
   <si>
@@ -359,6 +672,9 @@
     <t>Prisoner marker-set: {0}</t>
   </si>
   <si>
+    <t>포로 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PrisonerDiffer</t>
   </si>
   <si>
@@ -368,6 +684,9 @@
     <t>Different set for prisoners</t>
   </si>
   <si>
+    <t xml:space="preserve">    죄수를 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForPrisoner</t>
   </si>
   <si>
@@ -377,6 +696,9 @@
     <t>Show gizmo on prisoners</t>
   </si>
   <si>
+    <t>포로 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SlaveMarkerSet</t>
   </si>
   <si>
@@ -386,6 +708,9 @@
     <t>Slave marker-set: {0}</t>
   </si>
   <si>
+    <t>노예 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SlaveDiffer</t>
   </si>
   <si>
@@ -395,6 +720,9 @@
     <t>Different set for slaves</t>
   </si>
   <si>
+    <t xml:space="preserve">    노예를 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForSlave</t>
   </si>
   <si>
@@ -404,6 +732,9 @@
     <t>Show gizmo on slaves</t>
   </si>
   <si>
+    <t>노예 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EnemyMarkerSet</t>
   </si>
   <si>
@@ -413,6 +744,9 @@
     <t>Enemy marker-set: {0}</t>
   </si>
   <si>
+    <t>적 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EnemyDiffer</t>
   </si>
   <si>
@@ -422,6 +756,9 @@
     <t>Different set for enemies</t>
   </si>
   <si>
+    <t xml:space="preserve">    적을 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForEnemy</t>
   </si>
   <si>
@@ -431,6 +768,9 @@
     <t>Show gizmo on enemies</t>
   </si>
   <si>
+    <t>적 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.NeutralMarkerSet</t>
   </si>
   <si>
@@ -440,6 +780,9 @@
     <t>Neutral marker-set: {0}</t>
   </si>
   <si>
+    <t>중립 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.NeutralDiffer</t>
   </si>
   <si>
@@ -449,6 +792,9 @@
     <t>Different set for neutrals</t>
   </si>
   <si>
+    <t xml:space="preserve">    중립을 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForNeutral</t>
   </si>
   <si>
@@ -458,6 +804,9 @@
     <t>Show gizmo on neutrals</t>
   </si>
   <si>
+    <t>중립 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.VehiclesMarkerSet</t>
   </si>
   <si>
@@ -467,6 +816,9 @@
     <t>Vehicle marker-set: {0}</t>
   </si>
   <si>
+    <t>차량 마커 세트: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.VehiclesDiffer</t>
   </si>
   <si>
@@ -476,6 +828,9 @@
     <t>Different set for vehicles</t>
   </si>
   <si>
+    <t xml:space="preserve">    차량을 위한 다른 세트</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowForVehicles</t>
   </si>
   <si>
@@ -485,6 +840,9 @@
     <t>Show gizmo on vehicles</t>
   </si>
   <si>
+    <t>차량 설정 표시</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SelectMarker</t>
   </si>
   <si>
@@ -494,6 +852,9 @@
     <t>Select marker</t>
   </si>
   <si>
+    <t>마커 선택</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SelectMarkerTT</t>
   </si>
   <si>
@@ -503,6 +864,9 @@
     <t>Add a marker to this pawn</t>
   </si>
   <si>
+    <t>이 폰에 마커 추가</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RelativeToZoom</t>
   </si>
   <si>
@@ -512,6 +876,9 @@
     <t>Increase icon-size when zoomed out</t>
   </si>
   <si>
+    <t>축소 시 아이콘 크기 확대</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RelativeToZoomTT</t>
   </si>
   <si>
@@ -521,6 +888,9 @@
     <t>Will increase the icon-size when zooming out to keep them more visible</t>
   </si>
   <si>
+    <t>축소할 때 아이콘 크기를 늘려 더 잘 보이도록 합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RelativeIconSize</t>
   </si>
   <si>
@@ -530,6 +900,9 @@
     <t>Relative icon-size based on pawn-size</t>
   </si>
   <si>
+    <t>폰 크기에 따른 상대적 아이콘 크기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RelativeIconSizeTT</t>
   </si>
   <si>
@@ -539,6 +912,9 @@
     <t>Changes the relative size of the icons based on the pawns size</t>
   </si>
   <si>
+    <t>폰 크기에 따라 아이콘의 상대적 크기를 변경합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.UnsavedRule</t>
   </si>
   <si>
@@ -548,6 +924,9 @@
     <t>There is an unsaved rule, do you want to save your changes before closing?</t>
   </si>
   <si>
+    <t>저장되지 않은 규칙이 있습니다. 닫기 전에 변경 사항을 저장하시겠습니까?</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ResetAll</t>
   </si>
   <si>
@@ -557,6 +936,9 @@
     <t>Reset rules</t>
   </si>
   <si>
+    <t>규칙 초기화</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ResetAllConfirm</t>
   </si>
   <si>
@@ -566,6 +948,9 @@
     <t>Really remove all defined rules?</t>
   </si>
   <si>
+    <t>정의된 모든 규칙을 정말 제거할까요?</t>
+  </si>
+  <si>
     <t>Keyed+MTP.NoneSelected</t>
   </si>
   <si>
@@ -575,6 +960,9 @@
     <t>None selected</t>
   </si>
   <si>
+    <t>선택되지 않음</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SomeSelected</t>
   </si>
   <si>
@@ -584,6 +972,9 @@
     <t>{0} selected</t>
   </si>
   <si>
+    <t>{0} 선택됨</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ChangeTraits</t>
   </si>
   <si>
@@ -593,6 +984,9 @@
     <t>Change traits</t>
   </si>
   <si>
+    <t>특성 변경</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ChangeSkills</t>
   </si>
   <si>
@@ -602,6 +996,9 @@
     <t>Change skills</t>
   </si>
   <si>
+    <t>기술 변경</t>
+  </si>
+  <si>
     <t>Keyed+MTP.CustomIcon</t>
   </si>
   <si>
@@ -611,6 +1008,9 @@
     <t>Custom-icon</t>
   </si>
   <si>
+    <t>사용자 지정 아이콘</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Enabled</t>
   </si>
   <si>
@@ -620,6 +1020,9 @@
     <t>Enabled</t>
   </si>
   <si>
+    <t>활성화</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EnabledChange</t>
   </si>
   <si>
@@ -629,6 +1032,9 @@
     <t>Rule enabled, click to disable</t>
   </si>
   <si>
+    <t>규칙 활성화, 비활성화하려면 클릭</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Disabled</t>
   </si>
   <si>
@@ -638,6 +1044,9 @@
     <t>Disabled</t>
   </si>
   <si>
+    <t>비활성화</t>
+  </si>
+  <si>
     <t>Keyed+MTP.CannotEnable</t>
   </si>
   <si>
@@ -647,6 +1056,9 @@
     <t>Rule cannot be enabled due to missing setting</t>
   </si>
   <si>
+    <t>설정이 누락되어 규칙을 활성화할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DisabledChange</t>
   </si>
   <si>
@@ -656,6 +1068,9 @@
     <t>Rule disabled, click to enable</t>
   </si>
   <si>
+    <t>규칙 비활성화, 활성화하려면 클릭</t>
+  </si>
+  <si>
     <t>Keyed+MTP.IncreasePrio</t>
   </si>
   <si>
@@ -665,6 +1080,9 @@
     <t>Increase priority</t>
   </si>
   <si>
+    <t>우선 순위 높이기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DecreasePrio</t>
   </si>
   <si>
@@ -674,6 +1092,9 @@
     <t>Decrease priority</t>
   </si>
   <si>
+    <t>우선순위 낮추기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SaveAutomaticType</t>
   </si>
   <si>
@@ -683,6 +1104,9 @@
     <t>Save</t>
   </si>
   <si>
+    <t>저장</t>
+  </si>
+  <si>
     <t>Keyed+MTP.CancelAutomaticType</t>
   </si>
   <si>
@@ -692,6 +1116,9 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>취소</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EditAutomaticType</t>
   </si>
   <si>
@@ -701,6 +1128,9 @@
     <t>Edit</t>
   </si>
   <si>
+    <t>편집</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DeleteAutomaticType</t>
   </si>
   <si>
@@ -710,6 +1140,9 @@
     <t>Delete</t>
   </si>
   <si>
+    <t>삭제</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DeleteAutomaticTypeConfirm</t>
   </si>
   <si>
@@ -719,6 +1152,9 @@
     <t>Really delete rule?</t>
   </si>
   <si>
+    <t>정말 규칙을 삭제할까요?</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticRulesTitle</t>
   </si>
   <si>
@@ -728,6 +1164,9 @@
     <t>Automatic marking rules</t>
   </si>
   <si>
+    <t>자동 마킹 규칙</t>
+  </si>
+  <si>
     <t>Keyed+MTP.NewRuleButton</t>
   </si>
   <si>
@@ -737,6 +1176,9 @@
     <t>New rule</t>
   </si>
   <si>
+    <t>새 규칙</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RulesButtonInfo</t>
   </si>
   <si>
@@ -746,6 +1188,9 @@
     <t>Automatic rules ({0} active)</t>
   </si>
   <si>
+    <t>자동 규칙({0} 활성화됨)</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RulesButtonText</t>
   </si>
   <si>
@@ -755,6 +1200,9 @@
     <t>Edit rules</t>
   </si>
   <si>
+    <t>규칙 편집</t>
+  </si>
+  <si>
     <t>Keyed+MTP.UseAutoIcon</t>
   </si>
   <si>
@@ -764,6 +1212,9 @@
     <t>Auto-icon</t>
   </si>
   <si>
+    <t>자동 아이콘</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ResetAutoIcon</t>
   </si>
   <si>
@@ -773,6 +1224,9 @@
     <t>Reset auto-icon</t>
   </si>
   <si>
+    <t>자동 아이콘 초기화</t>
+  </si>
+  <si>
     <t>Keyed+MTP.None</t>
   </si>
   <si>
@@ -782,6 +1236,9 @@
     <t>No marker</t>
   </si>
   <si>
+    <t>마커 없음</t>
+  </si>
+  <si>
     <t>Keyed+MTP.DuplicateRule</t>
   </si>
   <si>
@@ -791,6 +1248,9 @@
     <t>Duplicate rule</t>
   </si>
   <si>
+    <t>규칙 복사</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Reset</t>
   </si>
   <si>
@@ -800,6 +1260,9 @@
     <t>Reset all values</t>
   </si>
   <si>
+    <t>모든 값 초기화</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Male</t>
   </si>
   <si>
@@ -809,6 +1272,9 @@
     <t>Male</t>
   </si>
   <si>
+    <t>남성</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Female</t>
   </si>
   <si>
@@ -818,6 +1284,9 @@
     <t>Female</t>
   </si>
   <si>
+    <t>여성</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Animal</t>
   </si>
   <si>
@@ -827,13 +1296,16 @@
     <t>Animals</t>
   </si>
   <si>
+    <t>동물</t>
+  </si>
+  <si>
     <t>Keyed+MTP.OnlyWhenDrafted</t>
   </si>
   <si>
     <t>MTP.OnlyWhenDrafted</t>
   </si>
   <si>
-    <t>Only when drafted</t>
+    <t>Equipped weapons</t>
   </si>
   <si>
     <t>Keyed+MTP.OnlyAnimal</t>
@@ -848,12 +1320,28 @@
     <t>Keyed+MTP.NotAnimal</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동물만</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.NotAnimal</t>
   </si>
   <si>
     <t>Not animals</t>
   </si>
   <si>
+    <t>동물 아님</t>
+  </si>
+  <si>
     <t>Keyed+MTP.LowAgeLimit</t>
   </si>
   <si>
@@ -863,6 +1351,9 @@
     <t>Low age-limit: {0}</t>
   </si>
   <si>
+    <t>최소 나이 제한: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.HighAgeLimit</t>
   </si>
   <si>
@@ -872,6 +1363,9 @@
     <t>High age-limit: {0}</t>
   </si>
   <si>
+    <t>최대 나이 제한: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.Unlimited</t>
   </si>
   <si>
@@ -881,6 +1375,9 @@
     <t>High age-limit: No limit</t>
   </si>
   <si>
+    <t>최대 나이 제한: 제한 없음</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ZOffset</t>
   </si>
   <si>
@@ -890,6 +1387,9 @@
     <t>Vertical offset: {0}</t>
   </si>
   <si>
+    <t>수직 오프셋: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.XOffset</t>
   </si>
   <si>
@@ -899,12 +1399,31 @@
     <t>Horizontal offset: {0}</t>
   </si>
   <si>
+    <t>수평 오프셋: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SeparateTemporary</t>
   </si>
   <si>
     <t>MTP.SeparateTemporary</t>
   </si>
   <si>
+    <t>여러 아이콘 표시</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Show multiple icons</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+MTP.SeparateTemporaryTT</t>
   </si>
   <si>
@@ -914,6 +1433,9 @@
     <t>Instead of replacing the icon, icons will be shown next to each other</t>
   </si>
   <si>
+    <t>아이콘을 교체하는 대신 아이콘이 나란히 표시됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.SeparateShowAll</t>
   </si>
   <si>
@@ -926,12 +1448,28 @@
     <t>Keyed+MTP.SeparateShowAllTT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-모든 임시 아이콘 표시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.SeparateShowAllTT</t>
   </si>
   <si>
     <t>Will show all temporary icons instead of just the top in priority</t>
   </si>
   <si>
+    <t>우선순위에 따라 상단 아이콘만 표시하는 것이 아니라 모든 임시 아이콘을 표시합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.NormalShowAll</t>
   </si>
   <si>
@@ -944,12 +1482,28 @@
     <t>Keyed+MTP.NormalShowAllTT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 모든 일반 아이콘 표시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.NormalShowAllTT</t>
   </si>
   <si>
     <t>Will show all normal icons instead of just the top in priority</t>
   </si>
   <si>
+    <t>우선순위에 따라 상단 아이콘만 표시하는 것이 아니라 모든 일반 아이콘을 표시합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.IconSpacingFactor</t>
   </si>
   <si>
@@ -962,6 +1516,19 @@
     <t>Keyed+MTP.InvertOrder</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 추가 아이콘 간격: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.InvertOrder</t>
   </si>
   <si>
@@ -971,12 +1538,28 @@
     <t>Keyed+MTP.InvertOrderTT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 순서 반전</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.InvertOrderTT</t>
   </si>
   <si>
     <t>Icons will be ordered from right to left based on priority</t>
   </si>
   <si>
+    <t>아이콘은 우선순위에 따라 오른쪽에서 왼쪽으로 정렬됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.ShowWhenSelected</t>
   </si>
   <si>
@@ -986,6 +1569,32 @@
     <t>Keyed+MTP.ShowWhenHover</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Expand when pawn selected</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 폰 선택 시 확장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.ShowWhenHover</t>
   </si>
   <si>
@@ -995,12 +1604,28 @@
     <t>Keyed+MTP.ShowWhenHoverTT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 아이콘 위에 마우스를 올리면 확장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.ShowWhenHoverTT</t>
   </si>
   <si>
     <t>Icons will expand to default spacing when mouse is over the icons</t>
   </si>
   <si>
+    <t>아이콘 위에 마우스를 올리면 아이콘이 기본 간격으로 확장됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RotateIcons</t>
   </si>
   <si>
@@ -1013,12 +1638,28 @@
     <t>Keyed+MTP.RotateIconsTT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 활성화 아이콘 회전</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.RotateIconsTT</t>
   </si>
   <si>
     <t>Icons will rotate between possible icons instead of showing multiple at the same time</t>
   </si>
   <si>
+    <t>아이콘이 동시에 여러 개 표시되지 않고 가능한 아이콘 간에 회전합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.MarkerNumber</t>
   </si>
   <si>
@@ -1028,6 +1669,9 @@
     <t>Marker {0}</t>
   </si>
   <si>
+    <t>마커 {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.IconSize</t>
   </si>
   <si>
@@ -1037,6 +1681,9 @@
     <t>Icon size: {0}</t>
   </si>
   <si>
+    <t>아이콘 크기: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.IconScalingFactor</t>
   </si>
   <si>
@@ -1046,6 +1693,9 @@
     <t>Zoom scaling factor: {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">    아이콘 확대/축소 배율: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PulsatingIcons</t>
   </si>
   <si>
@@ -1055,6 +1705,9 @@
     <t>Use pulsating icons</t>
   </si>
   <si>
+    <t>진동 아이콘 사용</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PulsatingIconsTT</t>
   </si>
   <si>
@@ -1064,6 +1717,9 @@
     <t>Icons will pulsate the same way the trader question-mark does</t>
   </si>
   <si>
+    <t>아이콘은 상인 질문 마크와 같은 방식으로 진동합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RefreshRules</t>
   </si>
   <si>
@@ -1073,6 +1729,9 @@
     <t>Refresh pawn-rules regularly</t>
   </si>
   <si>
+    <t>폰 규칙을 정기적으로 새로 고침</t>
+  </si>
+  <si>
     <t>Keyed+MTP.RefreshRulesTT</t>
   </si>
   <si>
@@ -1082,6 +1741,9 @@
     <t>Will reevaluate the rules regularly, to reflect changes that will affect the icon selected</t>
   </si>
   <si>
+    <t>규칙을 정기적으로 재평가하여 선택한 아이콘에 영향을 줄 수 있는 변경 사항을 반영합니다.</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedWeaponType.Melee</t>
   </si>
   <si>
@@ -1091,6 +1753,9 @@
     <t>Melee weapon</t>
   </si>
   <si>
+    <t>근접 무기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedWeaponType.Ranged</t>
   </si>
   <si>
@@ -1100,6 +1765,9 @@
     <t>Ranged projectile weapon</t>
   </si>
   <si>
+    <t>원거리 투사체 무기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedWeaponType.RangedExplosive</t>
   </si>
   <si>
@@ -1109,6 +1777,9 @@
     <t>Ranged explosive weapon</t>
   </si>
   <si>
+    <t>원거리 폭발 무기</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedWeaponType.Thrown</t>
   </si>
   <si>
@@ -1118,6 +1789,9 @@
     <t>Thrown</t>
   </si>
   <si>
+    <t>투척</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedApparelType.Royal</t>
   </si>
   <si>
@@ -1130,6 +1804,19 @@
     <t>Keyed+MTP.EquippedApparelType.Psycast</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>귀족 의류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.EquippedApparelType.Psycast</t>
   </si>
   <si>
@@ -1139,6 +1826,19 @@
     <t>Keyed+MTP.EquippedApparelType.Mechanator</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초능력 의류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.EquippedApparelType.Mechanator</t>
   </si>
   <si>
@@ -1148,6 +1848,19 @@
     <t>Keyed+MTP.EquippedApparelType.Armored</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메카나이터 의류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.EquippedApparelType.Armored</t>
   </si>
   <si>
@@ -1157,12 +1870,28 @@
     <t>Keyed+MTP.EquippedApparelType.EnviromentalProtection</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갑옷</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.EquippedApparelType.EnviromentalProtection</t>
   </si>
   <si>
     <t>Environmental protection apparel</t>
   </si>
   <si>
+    <t>환경 보호 의류</t>
+  </si>
+  <si>
     <t>Keyed+MTP.EquippedApparelType.Basic</t>
   </si>
   <si>
@@ -1175,12 +1904,28 @@
     <t>Keyed+MTP.PawnType.Colonist</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본 의류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.PawnType.Colonist</t>
   </si>
   <si>
     <t>Colonist</t>
   </si>
   <si>
+    <t>정착민</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Slave</t>
   </si>
   <si>
@@ -1190,6 +1935,9 @@
     <t>Slave</t>
   </si>
   <si>
+    <t>노예</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Prisoner</t>
   </si>
   <si>
@@ -1199,6 +1947,9 @@
     <t>Prisoner</t>
   </si>
   <si>
+    <t>포로</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Vehicle</t>
   </si>
   <si>
@@ -1208,6 +1959,9 @@
     <t>Vehicle</t>
   </si>
   <si>
+    <t>차량</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Enemy</t>
   </si>
   <si>
@@ -1217,6 +1971,9 @@
     <t>Enemy</t>
   </si>
   <si>
+    <t>적</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Neutral</t>
   </si>
   <si>
@@ -1226,6 +1983,9 @@
     <t>Neutral</t>
   </si>
   <si>
+    <t>중립</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnType.Default</t>
   </si>
   <si>
@@ -1235,13 +1995,19 @@
     <t>Any</t>
   </si>
   <si>
+    <t>모두</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticType.Weapon</t>
   </si>
   <si>
     <t>MTP.AutomaticType.Weapon</t>
   </si>
   <si>
-    <t>Equipped weapon</t>
+    <t>Related to colonist</t>
+  </si>
+  <si>
+    <t>장착한 무기</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Apparel</t>
@@ -1256,12 +2022,28 @@
     <t>Keyed+MTP.AutomaticType.WeaponType</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>착용한 의류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.AutomaticType.WeaponType</t>
   </si>
   <si>
     <t>Equipped weapon-type</t>
   </si>
   <si>
+    <t>장착 무기 유형</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticType.ApparelType</t>
   </si>
   <si>
@@ -1274,12 +2056,28 @@
     <t>Keyed+MTP.AutomaticType.Trait</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>착용한 의류 유형</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MTP.AutomaticType.Trait</t>
   </si>
   <si>
     <t>Has traits</t>
   </si>
   <si>
+    <t>특성 보유</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticType.Skill</t>
   </si>
   <si>
@@ -1289,13 +2087,19 @@
     <t>Skill at least</t>
   </si>
   <si>
+    <t>최소 기술</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticType.Relative</t>
   </si>
   <si>
     <t>MTP.AutomaticType.Relative</t>
   </si>
   <si>
-    <t>Has relation to colonist</t>
+    <t>Pawntype</t>
+  </si>
+  <si>
+    <t>정착민과 관계 있음</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.PawnType</t>
@@ -1304,7 +2108,10 @@
     <t>MTP.AutomaticType.PawnType</t>
   </si>
   <si>
-    <t>Pawn is of type</t>
+    <t>^ Drafted</t>
+  </si>
+  <si>
+    <t>폰의 유형</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Drafted</t>
@@ -1313,7 +2120,7 @@
     <t>MTP.AutomaticType.Drafted</t>
   </si>
   <si>
-    <t>^ Pawn is drafted</t>
+    <t>^ Mental state</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.MentalState</t>
@@ -1322,7 +2129,7 @@
     <t>MTP.AutomaticType.MentalState</t>
   </si>
   <si>
-    <t>^ Pawn is in mental state</t>
+    <t>^ Temporary hediff</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.HediffDynamic</t>
@@ -1331,7 +2138,7 @@
     <t>MTP.AutomaticType.HediffDynamic</t>
   </si>
   <si>
-    <t>^ Pawn has temporary hediff</t>
+    <t>Permanent hediff</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.HediffStatic</t>
@@ -1340,7 +2147,7 @@
     <t>MTP.AutomaticType.HediffStatic</t>
   </si>
   <si>
-    <t>Pawn has permanent hediff</t>
+    <t>Permanent bad hediff</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.AnyHediffStatic</t>
@@ -1349,7 +2156,7 @@
     <t>MTP.AutomaticType.AnyHediffStatic</t>
   </si>
   <si>
-    <t>Pawn has any permanent bad hediff</t>
+    <t>Specific animal</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Animal</t>
@@ -1358,7 +2165,7 @@
     <t>MTP.AutomaticType.Animal</t>
   </si>
   <si>
-    <t>Pawn is a specific animal</t>
+    <t>Specified gender</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Gender</t>
@@ -1367,7 +2174,7 @@
     <t>MTP.AutomaticType.Gender</t>
   </si>
   <si>
-    <t>Pawn is of specified gender</t>
+    <t>Specified age-range</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Age</t>
@@ -1376,7 +2183,7 @@
     <t>MTP.AutomaticType.Age</t>
   </si>
   <si>
-    <t>Pawn is in specified age-range</t>
+    <t>Specific xenotype</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Xenotype</t>
@@ -1385,7 +2192,7 @@
     <t>MTP.AutomaticType.Xenotype</t>
   </si>
   <si>
-    <t>Pawn is specific xenotype</t>
+    <t>Specific genes</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.Gene</t>
@@ -1394,7 +2201,7 @@
     <t>MTP.AutomaticType.Gene</t>
   </si>
   <si>
-    <t>Pawn has a specific gene</t>
+    <t>Show faction icon</t>
   </si>
   <si>
     <t>Keyed+MTP.AutomaticType.GeneUndefinedCategory</t>
@@ -1406,6 +2213,9 @@
     <t>Undefined</t>
   </si>
   <si>
+    <t>미정의</t>
+  </si>
+  <si>
     <t>Keyed+MTP.AutomaticType.HediffStage</t>
   </si>
   <si>
@@ -1415,6 +2225,9 @@
     <t>stage {0}</t>
   </si>
   <si>
+    <t>{0} 단계</t>
+  </si>
+  <si>
     <t>Keyed+MTP.PawnLimitation</t>
   </si>
   <si>
@@ -1424,6 +2237,9 @@
     <t>Only applies to: {0}</t>
   </si>
   <si>
+    <t>다음에만 적용: {0}</t>
+  </si>
+  <si>
     <t>Keyed+MTP.MentalState.Any</t>
   </si>
   <si>
@@ -1433,6 +2249,9 @@
     <t>Any state</t>
   </si>
   <si>
+    <t>모든 상태</t>
+  </si>
+  <si>
     <t>Keyed+MTP.MentalState.Passive</t>
   </si>
   <si>
@@ -1442,6 +2261,9 @@
     <t>Passive state</t>
   </si>
   <si>
+    <t>패시브 상태</t>
+  </si>
+  <si>
     <t>Keyed+MTP.MentalState.Aggressive</t>
   </si>
   <si>
@@ -1451,6 +2273,9 @@
     <t>Aggressive state</t>
   </si>
   <si>
+    <t>공격적 상태</t>
+  </si>
+  <si>
     <t>Keyed+MTP.OverrideRule</t>
   </si>
   <si>
@@ -1460,778 +2285,777 @@
     <t>This is an temporary-rule. It will only be shown during the time the condition for it is fulfilled.</t>
   </si>
   <si>
-    <t>WOW 스타일</t>
-  </si>
-  <si>
-    <t>월드 오브 워크래프트의 공격대 마커에서 영감을 얻은 마커</t>
-  </si>
-  <si>
-    <t>숫자</t>
-  </si>
-  <si>
-    <t>간단하게 번호를 매길 수 있는 마커</t>
-  </si>
-  <si>
-    <t>기술</t>
-  </si>
-  <si>
-    <t>업무 기술을 나타내는 마커</t>
-  </si>
-  <si>
-    <t>직업</t>
-  </si>
-  <si>
-    <t>직업 지정을 나타내는 마커, 제작자: [?] Survivalmaster</t>
-  </si>
-  <si>
-    <t>군대</t>
-  </si>
-  <si>
-    <t>미군을 기반으로 한 마커</t>
-  </si>
-  <si>
-    <t>게임 커맨드 앤 컨커의 GDI 진영을 기반으로 한 마커입니다.</t>
-  </si>
-  <si>
-    <t>게임 커맨드 앤 컨커의 Nod 진영을 기반으로 한 마커입니다.</t>
-  </si>
-  <si>
-    <t>게임 XCOM을 기반으로 한 마커, 제작자: Botaxalim</t>
-  </si>
-  <si>
-    <t>레코다의 게임 XCOM 2를 기반으로 한 귀여운 마커</t>
-  </si>
-  <si>
-    <t>무기</t>
-  </si>
-  <si>
-    <t>일반 무기 유형, 제작자: flaticon.com의 max.icons</t>
-  </si>
-  <si>
-    <t>XCOM 중세</t>
-  </si>
-  <si>
-    <t>XCOM 게임을 기반으로 한 중세 스타일의 마커, 제작자: Botaxalim</t>
-  </si>
-  <si>
-    <t>심볼</t>
-  </si>
-  <si>
-    <t>일반적인 기호를 사용한 마커</t>
-  </si>
-  <si>
-    <t>이데올로기</t>
-  </si>
-  <si>
-    <t>이데올로기의 마커, 제작자: Yoann</t>
-  </si>
-  <si>
-    <t>설치된 모드 버전: {0}</t>
-  </si>
-  <si>
-    <t>기본 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t>정착민 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    정착민을 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>정착민 설정 표시</t>
-  </si>
-  <si>
-    <t>포로 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    죄수를 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>포로 설정 표시</t>
-  </si>
-  <si>
-    <t>노예 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    노예를 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>노예 설정 표시</t>
-  </si>
-  <si>
-    <t>적 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    적을 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>적 설정 표시</t>
-  </si>
-  <si>
-    <t>중립 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    중립을 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>중립 설정 표시</t>
-  </si>
-  <si>
-    <t>차량 마커 세트: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    차량을 위한 다른 세트</t>
-  </si>
-  <si>
-    <t>차량 설정 표시</t>
-  </si>
-  <si>
-    <t>마커 선택</t>
-  </si>
-  <si>
-    <t>이 폰에 마커 추가</t>
-  </si>
-  <si>
-    <t>축소 시 아이콘 크기 확대</t>
-  </si>
-  <si>
-    <t>축소할 때 아이콘 크기를 늘려 더 잘 보이도록 합니다.</t>
-  </si>
-  <si>
-    <t>폰 크기에 따른 상대적 아이콘 크기</t>
-  </si>
-  <si>
-    <t>폰 크기에 따라 아이콘의 상대적 크기를 변경합니다.</t>
-  </si>
-  <si>
-    <t>저장되지 않은 규칙이 있습니다. 닫기 전에 변경 사항을 저장하시겠습니까?</t>
-  </si>
-  <si>
-    <t>규칙 초기화</t>
-  </si>
-  <si>
-    <t>정의된 모든 규칙을 정말 제거할까요?</t>
-  </si>
-  <si>
-    <t>선택되지 않음</t>
-  </si>
-  <si>
-    <t>{0} 선택됨</t>
-  </si>
-  <si>
-    <t>특성 변경</t>
-  </si>
-  <si>
-    <t>기술 변경</t>
-  </si>
-  <si>
-    <t>사용자 지정 아이콘</t>
-  </si>
-  <si>
-    <t>활성화</t>
-  </si>
-  <si>
-    <t>규칙 활성화, 비활성화하려면 클릭</t>
-  </si>
-  <si>
-    <t>비활성화</t>
-  </si>
-  <si>
-    <t>설정이 누락되어 규칙을 활성화할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>규칙 비활성화, 활성화하려면 클릭</t>
-  </si>
-  <si>
-    <t>우선 순위 높이기</t>
-  </si>
-  <si>
-    <t>우선순위 낮추기</t>
-  </si>
-  <si>
-    <t>저장</t>
-  </si>
-  <si>
-    <t>취소</t>
-  </si>
-  <si>
-    <t>편집</t>
-  </si>
-  <si>
-    <t>삭제</t>
-  </si>
-  <si>
-    <t>정말 규칙을 삭제할까요?</t>
-  </si>
-  <si>
-    <t>자동 마킹 규칙</t>
-  </si>
-  <si>
-    <t>새 규칙</t>
-  </si>
-  <si>
-    <t>자동 규칙({0} 활성화됨)</t>
-  </si>
-  <si>
-    <t>규칙 편집</t>
-  </si>
-  <si>
-    <t>자동 아이콘</t>
-  </si>
-  <si>
-    <t>자동 아이콘 초기화</t>
-  </si>
-  <si>
-    <t>마커 없음</t>
-  </si>
-  <si>
-    <t>모든 값 초기화</t>
-  </si>
-  <si>
-    <t>수직 오프셋: {0}</t>
-  </si>
-  <si>
-    <t>수평 오프셋: {0}</t>
-  </si>
-  <si>
-    <t>마커 {0}</t>
-  </si>
-  <si>
-    <t>아이콘 크기: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    아이콘 확대/축소 배율: {0}</t>
-  </si>
-  <si>
-    <t>진동 아이콘 사용</t>
-  </si>
-  <si>
-    <t>아이콘은 상인 질문 마크와 같은 방식으로 진동합니다.</t>
-  </si>
-  <si>
-    <t>근접 무기</t>
-  </si>
-  <si>
-    <t>원거리 투사체 무기</t>
-  </si>
-  <si>
-    <t>원거리 폭발 무기</t>
-  </si>
-  <si>
-    <t>투척</t>
-  </si>
-  <si>
-    <t>정착민</t>
-  </si>
-  <si>
-    <t>노예</t>
-  </si>
-  <si>
-    <t>포로</t>
-  </si>
-  <si>
-    <t>차량</t>
-  </si>
-  <si>
-    <t>적</t>
-  </si>
-  <si>
-    <t>중립</t>
-  </si>
-  <si>
-    <t>모두</t>
-  </si>
-  <si>
-    <t>장착한 무기</t>
-  </si>
-  <si>
-    <t>장착 무기 유형</t>
-  </si>
-  <si>
-    <t>특성 보유</t>
-  </si>
-  <si>
-    <t>최소 기술</t>
-  </si>
-  <si>
-    <t>정착민과 관계 있음</t>
-  </si>
-  <si>
-    <t>폰의 유형</t>
-  </si>
-  <si>
-    <t>소집된 폰</t>
-  </si>
-  <si>
-    <t>폰의 정신 상태</t>
-  </si>
-  <si>
-    <t>일시적인 헤디프를 가진 폰</t>
-  </si>
-  <si>
-    <t>영구적인 헤디프를 가진 폰</t>
-  </si>
-  <si>
-    <t>{0} 단계</t>
-  </si>
-  <si>
-    <t>특정 동물인 폰</t>
-  </si>
-  <si>
-    <t>특정 성별인 폰</t>
-  </si>
-  <si>
-    <t>특정 나이대의 폰</t>
-  </si>
-  <si>
-    <t>다음에만 적용: {0}</t>
-  </si>
-  <si>
-    <t>모든 상태</t>
-  </si>
-  <si>
-    <t>패시브 상태</t>
-  </si>
-  <si>
-    <t>공격적 상태</t>
-  </si>
-  <si>
-    <t>규칙 복사</t>
-  </si>
-  <si>
-    <t>남성</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>동물 아님</t>
-  </si>
-  <si>
-    <t>최소 나이 제한: {0}</t>
-  </si>
-  <si>
-    <t>최대 나이 제한: {0}</t>
-  </si>
-  <si>
-    <t>최대 나이 제한: 제한 없음</t>
-  </si>
-  <si>
-    <t>동물만</t>
+    <t>이것은 임시 규칙입니다. 해당 조건이 충족되는 동안에만 표시됩니다.</t>
+  </si>
+  <si>
+    <t>폰을 선택하면 아이콘이 기본 간격으로 확장됩니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShowWhenSelectedTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShowWhenSelectedTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Icons will expand to default spacing when the pawn is selected</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons will expand to default spacing when the SHIFT key is pressed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShowOnShift</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShowOnShift</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Expand when SHIFT is pressed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Shift 키를 누르면 확장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShowOnShiftTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShowOnShiftTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift 키를 누르면 아이콘이 기본 간격으로 확장됩니다.</t>
+  </si>
+  <si>
+    <t>Icons will expand to default spacing when the game is paused</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShowOnPaused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShowOnPaused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Expand when game is paused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 게임 일시정지 시 확장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShowOnPausedTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShowOnPausedTT</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 일시 중지되면 아이콘이 기본 간격으로 확장됩니다.</t>
+  </si>
+  <si>
+    <t>Hide icons unless</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.HideIcons</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.HideIcons</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음과 같은 경우를 제외하고 아이콘 숨기기</t>
+  </si>
+  <si>
+    <t>Show ideology icon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.GameIsPaused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.GameIsPaused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Game is paused</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 게임이 일시 중지됨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.ShiftIsPressed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.ShiftIsPressed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- SHIFT is pressed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- SHIFT 키를 누른 상태</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.PawnIsSelected</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.PawnIsSelected</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Pawn is selected</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 폰이 선택됨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.AutomaticType.FactionIcon</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.AutomaticType.FactionIcon</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TabulaRasa.UpdateDef+MarkThatPawn_1_4_1.content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keyed+MTP.AutomaticType.IdeologyIcon</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.AutomaticType.IdeologyIcon</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTP.OnlyWhenDraftedTT</t>
+  </si>
+  <si>
+    <t>Will only apply when pawns are drafted</t>
+  </si>
+  <si>
+    <t>MTP.OnlyWhenDraftedTT 'Will only apply when pawns are drafted' (English file: Text.xml:62)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폰을 소집할 때만 적용됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or-logic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MTP.OrLogic</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or-논리</t>
+  </si>
+  <si>
+    <t>MTP.OrLogic 'Or-logic' (English file: Text.xml:63)</t>
+  </si>
+  <si>
+    <t>MTP.OrLogicTT</t>
+  </si>
+  <si>
+    <t>Will apply the rule if any of the selected things are correct, instead of when all are correct.</t>
+  </si>
+  <si>
+    <t>모든 항목이 맞을 때가 아니라 선택한 항목 중 하나라도 맞으면 규칙을 적용합니다.</t>
+  </si>
+  <si>
+    <t>MTP.OrLogicTT 'Will apply the rule if any of the selected things are correct, instead of when all are correct.' (English file: Text.xml:64)</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.TDFindLib</t>
+  </si>
+  <si>
+    <t>Advanced rule (TD Find Lib)</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.TDFindLib 'Advanced rule (TD Find Lib)' (English file: Text.xml:141)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>고급 규칙(TD Find Lib)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.Mechanoid</t>
+  </si>
+  <si>
+    <t>Specific mechanoid</t>
+  </si>
+  <si>
+    <t>특정 메카노이드</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.Mechanoid 'Specific mechanoid' (English file: Text.xml:142)</t>
+  </si>
+  <si>
+    <t>MTP.TDFindLibRuleLabel</t>
+  </si>
+  <si>
+    <t>Mark That Pawn-rule</t>
+  </si>
+  <si>
+    <t>Mark That Pawn-규칙</t>
+  </si>
+  <si>
+    <t>MTP.TDFindLibRuleLabel 'Mark That Pawn-rule' (English file: Text.xml:143)</t>
+  </si>
+  <si>
+    <t>MTP.RequiresAnActiveGame</t>
+  </si>
+  <si>
+    <t>Requires an active game</t>
+  </si>
+  <si>
+    <t>게임이 활성화되어 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>MTP.RequiresAnActiveGame 'Requires an active game' (English file: Text.xml:144)</t>
+  </si>
+  <si>
+    <t>MTP.EditTdRule</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTP.EditTdRule 'Edit' (English file: Text.xml:145)</t>
+  </si>
+  <si>
+    <t>MTP.AutomaticType.FactionLeader</t>
+  </si>
+  <si>
+    <t>Show faction leader</t>
+  </si>
+  <si>
+    <t>진영 지도자 표시</t>
+  </si>
+  <si>
+    <t>MTP.RequiresASpecificGame</t>
+  </si>
+  <si>
+    <t>활성화된 게임이 필요합니다.</t>
+  </si>
+  <si>
+    <t>MTP.IsInWrongGame</t>
+  </si>
+  <si>
+    <t>Created in another save</t>
+  </si>
+  <si>
+    <t>다른 저장에서 생성</t>
+  </si>
+  <si>
+    <t>Required Mods [Not chosen]</t>
+  </si>
+  <si>
+    <t>English [Source string]</t>
+  </si>
+  <si>
+    <t>Korean (한국어) [Translation]</t>
+  </si>
+  <si>
+    <t>Drafted</t>
+  </si>
+  <si>
+    <t>TabulaRasa.UpdateDef</t>
+  </si>
+  <si>
+    <t>MarkThatPawn_1_4_1.content</t>
+  </si>
+  <si>
+    <t>Since the response of the mod was so positive I decided to expand on it further.
+It is now possible to change the icon-set in the mod-options as well as have different icon-sets based on the pawn-type.
+The icon-sets are now based on xml and it should be pretty simple to add more.
+I added two new sets, one with simple numberings and also one with icons based on work-skills.
+The latter is based on icons from the Pawn Badge mod, following its included License.
+1.3 is now also supported but adding features to both versions is a bit of a pain so only the 1.4 version will see further additions.
+If you have any ideas for additional marker-icons, please leave a comment on the mod-page or on the linked Discord server!</t>
+  </si>
+  <si>
+    <t>TabulaRasa.UpdateDef+MarkThatPawn_1_4_6.content</t>
+  </si>
+  <si>
+    <t>MarkThatPawn_1_4_6.content</t>
+  </si>
+  <si>
+    <t>Since it was requested by multiple users there is now mod-options for marking pawns automatically based on various conditions.
+These rules will be checked whenever a pawn spawns into the world and will mark them if applicable. The marking can be changed or removed from the pawn if needed.
+If you have suggestions for new rule-types, please leave a comment on the mod-page or the Discord-server!
+I also added a few more icon-packs; Ideology icons by Yoann, Weapon-types by max.icons, XCOM-icons by Botoxalim, Job-icons by Survivalmaster.</t>
+  </si>
+  <si>
+    <t>TabulaRasa.UpdateDef+MarkThatPawn_1_4_23.content</t>
+  </si>
+  <si>
+    <t>MarkThatPawn_1_4_23.content</t>
+  </si>
+  <si>
+    <t>There are now options to show all applicable icons for pawns. This can be turned off in the settings if you still want to show only the highest priority icon.
+You can also choose to rotate the current icon of all applicable icons for the pawn.
+Hopefully this will be usable!</t>
+  </si>
+  <si>
+    <t>Keyed+MTP.PawnType.ColonistAnimal</t>
+  </si>
+  <si>
+    <t>MTP.PawnType.ColonistAnimal</t>
+  </si>
+  <si>
+    <t>Colony animal</t>
+  </si>
+  <si>
+    <t>Keyed+MTP.PawnType.EnemyAnimal</t>
+  </si>
+  <si>
+    <t>MTP.PawnType.EnemyAnimal</t>
+  </si>
+  <si>
+    <t>Enemy animal</t>
+  </si>
+  <si>
+    <t>Keyed+MTP.PawnType.NeutralAnimal</t>
+  </si>
+  <si>
+    <t>MTP.PawnType.NeutralAnimal</t>
+  </si>
+  <si>
+    <t>Neutral animal</t>
+  </si>
+  <si>
+    <t>소집 시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 동물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소집 시에만</t>
+    <t>영구적인 나쁜 헤디프</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>영구적인 헤디프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Show multiple icons</t>
+    <t>일시적인 헤디프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여러 아이콘 표시</t>
-  </si>
-  <si>
-    <t>아이콘을 교체하는 대신 아이콘이 나란히 표시됩니다.</t>
-  </si>
-  <si>
-    <t>-모든 임시 아이콘 표시</t>
+    <t>정신 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우선순위에 따라 상단 아이콘만 표시하는 것이 아니라 모든 임시 아이콘을 표시합니다.</t>
-  </si>
-  <si>
-    <t>- 모든 일반 아이콘 표시</t>
+    <t>소집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우선순위에 따라 상단 아이콘만 표시하는 것이 아니라 모든 일반 아이콘을 표시합니다.</t>
-  </si>
-  <si>
-    <t>- 추가 아이콘 간격: {0}</t>
+    <t>특정 성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이것은 임시 규칙입니다. 해당 조건이 충족되는 동안에만 표시됩니다.</t>
-  </si>
-  <si>
-    <t>- 순서 반전</t>
+    <t>특정 나이대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이콘은 우선순위에 따라 오른쪽에서 왼쪽으로 정렬됩니다.</t>
-  </si>
-  <si>
-    <t>- Expand when pawn selected</t>
+    <t>특정 종족</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유전자</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>진영 아이콘 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 폰 선택 시 확장</t>
+    <t>사상 아이콘 표시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드에 대한 반응이 매우 긍정적이어서 더 확장하기로 결정했습니다.\n이제 모드 옵션에서 아이콘 세트를 변경할 수 있을 뿐만 아니라 폰 유형에 따라 다른 아이콘 세트를 가질 수 있습니다.\n이제 아이콘 세트는 XML을 기반으로 하며 더 추가하는 것은 매우 간단합니다.\n두 개의 새로운 세트를 추가했는데, 하나는 단순한 번호와 작업 스킬에 기반한 아이콘이 있는 세트입니다.\n후자는 포함된 라이선스에 따라 폰 배지 모드의 아이콘을 기반으로 합니다.\n현재 1.3 버전도 지원되지만 두 버전 모두에 기능을 추가하는 것은 다소 번거롭기 때문에 1.4 버전에만 추가될 예정입니다.\n추가 마커 아이콘에 대한 아이디어가 있으시면 모드 페이지나 링크된 Discord 서버에 댓글을 남겨주세요!</t>
+  </si>
+  <si>
+    <t>여러 사용자의 요청에 따라 이제 다양한 조건에 따라 폰을 자동으로 표시하는 모드 옵션이 추가되었습니다.\n이 규칙은 폰이 월드에 스폰될 때마다 확인되며, 해당되는 경우 폰에 마킹을 표시합니다. 필요한 경우 마킹을 변경하거나 폰에서 제거할 수 있습니다.\n새로운 규칙 유형에 대한 제안이 있으시면 모드 페이지나 디스코드 서버에 의견을 남겨주세요!\n\n또한 몇 가지 아이콘 팩을 추가했습니다. Yoann의 이념 아이콘, max.icons의 무기 유형, Botoxalim의 XCOM 아이콘, Survivalmaster의 직업 아이콘이 추가되었습니다.</t>
+  </si>
+  <si>
+    <t>이제 폰에 해당하는 모든 아이콘을 표시하는 옵션이 있습니다. 여전히 우선순위가 가장 높은 아이콘만 표시하려면 설정에서 이 옵션을 해제할 수 있습니다.\n폰에 해당하는 모든 아이콘의 현재 아이콘을 회전하도록 선택할 수도 있습니다.\n유용하게 사용되길 바랍니다!</t>
+  </si>
+  <si>
+    <t>정착지 동물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 아이콘 위에 마우스를 올리면 확장</t>
+    <t>적 동물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이콘 위에 마우스를 올리면 아이콘이 기본 간격으로 확장됩니다.</t>
-  </si>
-  <si>
-    <t>- 활성화 아이콘 회전</t>
+    <t>중립 동물</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘이 동시에 여러 개 표시되지 않고 가능한 아이콘 간에 회전합니다.</t>
-  </si>
-  <si>
-    <t>귀족 의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초능력 의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카나이터 의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경 보호 의류</t>
-  </si>
-  <si>
-    <t>기본 의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착용한 의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착용한 의류 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 종족의 폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 유전자의 폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정의</t>
-  </si>
-  <si>
-    <t>폰 규칙을 정기적으로 새로 고침</t>
-  </si>
-  <si>
-    <t>규칙을 정기적으로 재평가하여 선택한 아이콘에 영향을 줄 수 있는 변경 사항을 반영합니다.</t>
-  </si>
-  <si>
-    <t>영구적인 나쁜 헤디프를 가진 폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShowOnShift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShowOnPaused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.FactionIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Expand when SHIFT is pressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons will expand to default spacing when the SHIFT key is pressed</t>
-  </si>
-  <si>
-    <t>- Expand when game is paused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons will expand to default spacing when the game is paused</t>
-  </si>
-  <si>
-    <t>Hide icons unless</t>
-  </si>
-  <si>
-    <t>Show faction icon for pawn</t>
-  </si>
-  <si>
-    <t>Show ideology icon for pawn</t>
-  </si>
-  <si>
-    <t>- Game is paused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- SHIFT is pressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Pawn is selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShowWhenSelectedTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShowWhenSelectedTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShowOnShift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShowOnShiftTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShowOnShiftTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShowOnPaused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShowOnPausedTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShowOnPausedTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.HideIcons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.HideIcons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.GameIsPaused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.GameIsPaused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.ShiftIsPressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.ShiftIsPressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.PawnIsSelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.PawnIsSelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.AutomaticType.FactionIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.IdeologyIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+MTP.AutomaticType.IdeologyIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons will expand to default spacing when the pawn is selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰을 선택하면 아이콘이 기본 간격으로 확장됩니다.</t>
-  </si>
-  <si>
-    <t>- Shift 키를 누르면 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift 키를 누르면 아이콘이 기본 간격으로 확장됩니다.</t>
-  </si>
-  <si>
-    <t>- 게임 일시정지 시 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임이 일시 중지되면 아이콘이 기본 간격으로 확장됩니다.</t>
-  </si>
-  <si>
-    <t>다음과 같은 경우를 제외하고 아이콘 숨기기</t>
-  </si>
-  <si>
-    <t>- 게임이 일시 중지됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- SHIFT 키를 누른 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 폰이 선택됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰의 진영 아이콘 표시</t>
-  </si>
-  <si>
-    <t>폰의 사상 아이콘 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.OnlyWhenDraftedTT 'Will only apply when pawns are drafted' (English file: Text.xml:62)</t>
-  </si>
-  <si>
-    <t>MTP.OrLogic 'Or-logic' (English file: Text.xml:63)</t>
-  </si>
-  <si>
-    <t>MTP.OrLogicTT 'Will apply the rule if any of the selected things are correct, instead of when all are correct.' (English file: Text.xml:64)</t>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.TDFindLib 'Advanced rule (TD Find Lib)' (English file: Text.xml:141)</t>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.Mechanoid 'Specific mechanoid' (English file: Text.xml:142)</t>
-  </si>
-  <si>
-    <t>MTP.TDFindLibRuleLabel 'Mark That Pawn-rule' (English file: Text.xml:143)</t>
-  </si>
-  <si>
-    <t>MTP.RequiresAnActiveGame 'Requires an active game' (English file: Text.xml:144)</t>
-  </si>
-  <si>
-    <t>MTP.EditTdRule 'Edit' (English file: Text.xml:145)</t>
-  </si>
-  <si>
-    <t>MTP.OnlyWhenDraftedTT</t>
-  </si>
-  <si>
-    <t>MTP.OrLogicTT</t>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.TDFindLib</t>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.Mechanoid</t>
-  </si>
-  <si>
-    <t>MTP.TDFindLibRuleLabel</t>
-  </si>
-  <si>
-    <t>MTP.RequiresAnActiveGame</t>
-  </si>
-  <si>
-    <t>MTP.EditTdRule</t>
-  </si>
-  <si>
-    <t>MTP.OrLogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will only apply when pawns are drafted</t>
-  </si>
-  <si>
-    <t>Or-logic</t>
-  </si>
-  <si>
-    <t>Will apply the rule if any of the selected things are correct, instead of when all are correct.</t>
-  </si>
-  <si>
-    <t>Advanced rule (TD Find Lib)</t>
-  </si>
-  <si>
-    <t>Specific mechanoid</t>
-  </si>
-  <si>
-    <t>Mark That Pawn-rule</t>
-  </si>
-  <si>
-    <t>Requires an active game</t>
-  </si>
-  <si>
-    <t>폰을 소집할 때만 적용됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Or-논리</t>
-  </si>
-  <si>
-    <t>모든 항목이 맞을 때가 아니라 선택한 항목 중 하나라도 맞으면 규칙을 적용합니다.</t>
-  </si>
-  <si>
-    <t>고급 규칙(TD Find Lib)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 메카노이드</t>
-  </si>
-  <si>
-    <t>Mark That Pawn-규칙</t>
-  </si>
-  <si>
-    <t>게임이 활성화되어 있어야 합니다.</t>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTP.AutomaticType.FactionLeader</t>
-  </si>
-  <si>
-    <t>MTP.RequiresASpecificGame</t>
-  </si>
-  <si>
-    <t>MTP.IsInWrongGame</t>
-  </si>
-  <si>
-    <t>Show faction leader</t>
-  </si>
-  <si>
-    <t>Created in another save</t>
-  </si>
-  <si>
-    <t>진영 지도자 표시</t>
-  </si>
-  <si>
-    <t>활성화된 게임이 필요합니다.</t>
-  </si>
-  <si>
-    <t>다른 저장에서 생성</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2246,8 +3070,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2274,6 +3104,16 @@
         <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2287,7 +3127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2295,6 +3135,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2596,11 +3438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2610,6 +3452,7 @@
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2646,2845 +3489,2845 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>476</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>478</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>479</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>481</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>482</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>483</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>484</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>485</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>486</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>487</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>488</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>490</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>491</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>492</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>493</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>494</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>495</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>496</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>497</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>498</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>499</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>500</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>501</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>502</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>504</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>505</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>506</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>507</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>508</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>510</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>511</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>512</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>513</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>514</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>515</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>516</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>517</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>518</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>519</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>520</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>521</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>522</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>523</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>524</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>525</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>526</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>527</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>528</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>529</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>530</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>531</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>532</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>533</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>534</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>535</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>536</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>537</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>538</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>539</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>540</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>541</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>542</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>543</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>544</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>545</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>546</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>548</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>549</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>587</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>550</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>588</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>589</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>590</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>266</v>
+        <v>345</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>701</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>596</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>595</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>591</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>592</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>593</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>594</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>551</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>552</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>597</v>
+        <v>378</v>
       </c>
       <c r="E94" t="s">
-        <v>598</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E95" t="s">
-        <v>599</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>600</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>296</v>
+        <v>386</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>601</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>602</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="E99" t="s">
-        <v>603</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>604</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>606</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="E102" t="s">
-        <v>607</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>608</v>
+        <v>414</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>609</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>610</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="E105" t="s">
-        <v>611</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>324</v>
+        <v>425</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>612</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="E107" t="s">
-        <v>613</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>328</v>
+        <v>431</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>553</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>554</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>555</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>556</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>447</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>341</v>
+        <v>448</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>557</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="E113" t="s">
-        <v>625</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>346</v>
+        <v>455</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>347</v>
+        <v>456</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="E114" t="s">
-        <v>626</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>351</v>
+        <v>461</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>558</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>559</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>356</v>
+        <v>468</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>357</v>
+        <v>469</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>361</v>
+        <v>475</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>362</v>
+        <v>476</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>614</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>364</v>
+        <v>478</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>615</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>370</v>
+        <v>486</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>371</v>
+        <v>488</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>618</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>376</v>
+        <v>495</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>619</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>395</v>
+        <v>520</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>396</v>
+        <v>521</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>400</v>
+        <v>527</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>620</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>407</v>
+        <v>536</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>415</v>
+        <v>547</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>416</v>
+        <v>548</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>418</v>
+        <v>551</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>420</v>
+        <v>552</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>423</v>
+        <v>556</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>426</v>
+        <v>560</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>575</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>429</v>
+        <v>563</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>576</v>
+        <v>725</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>432</v>
+        <v>566</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>577</v>
+        <v>724</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>435</v>
+        <v>569</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>567</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>578</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>438</v>
+        <v>572</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>570</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>439</v>
+        <v>574</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>441</v>
+        <v>575</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>573</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>580</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>444</v>
+        <v>578</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>576</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>581</v>
+        <v>727</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>447</v>
+        <v>581</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>579</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>582</v>
+        <v>728</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>448</v>
+        <v>583</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>450</v>
+        <v>584</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>582</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>622</v>
+        <v>729</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>451</v>
+        <v>586</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>453</v>
+        <v>587</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>585</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>623</v>
+        <v>730</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>454</v>
+        <v>589</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>455</v>
+        <v>590</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>456</v>
+        <v>591</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>457</v>
+        <v>593</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>458</v>
+        <v>594</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>459</v>
+        <v>595</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>460</v>
+        <v>597</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>461</v>
+        <v>598</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>462</v>
+        <v>599</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>463</v>
+        <v>601</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>464</v>
+        <v>602</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>465</v>
+        <v>603</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>466</v>
+        <v>605</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>467</v>
+        <v>606</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>468</v>
+        <v>607</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>469</v>
+        <v>609</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>470</v>
+        <v>610</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>471</v>
+        <v>611</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>472</v>
+        <v>613</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>474</v>
+        <v>615</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="D157" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="E157" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C158" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>662</v>
+        <v>625</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C159" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="D159" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E159" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C160" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D160" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E160" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D161" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E161" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C162" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D162" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E162" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C163" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C164" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C166" t="s">
-        <v>630</v>
-      </c>
-      <c r="D166" t="s">
-        <v>636</v>
+        <v>655</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>588</v>
       </c>
       <c r="E166" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C167" t="s">
         <v>658</v>
       </c>
-      <c r="D167" t="s">
-        <v>637</v>
+      <c r="D167" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="E167" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C168" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="D168" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E168" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="F168" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G168" t="str">
-        <f>LEFT(F168,FIND(" ",F168)-1)</f>
+        <f t="shared" ref="G168:G175" si="0">LEFT(F168,FIND(" ",F168)-1)</f>
         <v>MTP.OnlyWhenDraftedTT</v>
       </c>
       <c r="H168" t="str">
@@ -5494,223 +6337,360 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C169" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="D169" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="E169" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="F169" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" ref="G169:G175" si="0">LEFT(F169,FIND(" ",F169)-1)</f>
+        <f t="shared" si="0"/>
         <v>MTP.OrLogic</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" ref="H169:H175" si="1">MID(F169,FIND("'",F169)+1,FIND("'",F169,FIND("'",F169)+1)-FIND("'",F169)-1)</f>
+        <f>MID(F169,FIND("'",F169)+1,FIND("'",F169,FIND("'",F169)+1)-FIND("'",F169)-1)</f>
         <v>Or-logic</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C170" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="D170" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="E170" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="F170" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="0"/>
         <v>MTP.OrLogicTT</v>
       </c>
-      <c r="H170" t="str">
-        <f t="shared" si="1"/>
-        <v>Will apply the rule if any of the selected things are correct, instead of when all are correct.</v>
+      <c r="H170" t="e">
+        <f>MID(F170,FIND("'",F169)+1,FIND("'",F170,FIND("'",F169)+1)-FIND("'",F170)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D171" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="E171" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="F171" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="0"/>
         <v>MTP.AutomaticType.TDFindLib</v>
       </c>
-      <c r="H171" t="str">
-        <f t="shared" si="1"/>
-        <v>Advanced rule (TD Find Lib)</v>
+      <c r="H171" t="e">
+        <f>MID(F171,FIND("'",F169)+1,FIND("'",F171,FIND("'",F169)+1)-FIND("'",F171)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C172" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D172" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="E172" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="F172" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="0"/>
         <v>MTP.AutomaticType.Mechanoid</v>
       </c>
-      <c r="H172" t="str">
-        <f t="shared" si="1"/>
-        <v>Specific mechanoid</v>
+      <c r="H172" t="e">
+        <f>MID(F172,FIND("'",F169)+1,FIND("'",F172,FIND("'",F169)+1)-FIND("'",F172)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C173" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D173" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E173" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="F173" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="0"/>
         <v>MTP.TDFindLibRuleLabel</v>
       </c>
-      <c r="H173" t="str">
-        <f t="shared" si="1"/>
-        <v>Mark That Pawn-rule</v>
+      <c r="H173" t="e">
+        <f>MID(F173,FIND("'",F169)+1,FIND("'",F173,FIND("'",F169)+1)-FIND("'",F173)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C174" t="s">
+        <v>683</v>
+      </c>
+      <c r="D174" t="s">
+        <v>684</v>
+      </c>
+      <c r="E174" t="s">
         <v>685</v>
       </c>
-      <c r="D174" t="s">
-        <v>694</v>
-      </c>
-      <c r="E174" t="s">
-        <v>701</v>
-      </c>
       <c r="F174" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="0"/>
         <v>MTP.RequiresAnActiveGame</v>
       </c>
-      <c r="H174" t="str">
-        <f t="shared" si="1"/>
-        <v>Requires an active game</v>
+      <c r="H174" t="e">
+        <f>MID(F174,FIND("'",F169)+1,FIND("'",F174,FIND("'",F169)+1)-FIND("'",F174)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C175" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D175" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E175" t="s">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="F175" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="0"/>
         <v>MTP.EditTdRule</v>
       </c>
-      <c r="H175" t="str">
-        <f t="shared" si="1"/>
-        <v>Edit</v>
+      <c r="H175" t="e">
+        <f>MID(F175,FIND("'",F169)+1,FIND("'",F175,FIND("'",F169)+1)-FIND("'",F175)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C176" t="s">
+        <v>690</v>
+      </c>
+      <c r="D176" t="s">
+        <v>691</v>
+      </c>
+      <c r="E176" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" t="s">
+        <v>693</v>
+      </c>
+      <c r="D177" t="s">
+        <v>684</v>
+      </c>
+      <c r="E177" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" t="s">
+        <v>695</v>
+      </c>
+      <c r="D178" t="s">
+        <v>696</v>
+      </c>
+      <c r="E178" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>656</v>
+      </c>
+      <c r="B180" t="s">
+        <v>702</v>
+      </c>
+      <c r="C180" t="s">
         <v>703</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D180" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E180" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>705</v>
+      </c>
+      <c r="B181" t="s">
+        <v>702</v>
+      </c>
+      <c r="C181" t="s">
         <v>706</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D181" t="s">
+        <v>707</v>
+      </c>
+      <c r="E181" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" t="s">
-        <v>704</v>
-      </c>
-      <c r="D177" t="s">
-        <v>694</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="B182" t="s">
+        <v>702</v>
+      </c>
+      <c r="C182" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C178" t="s">
-        <v>705</v>
-      </c>
-      <c r="D178" t="s">
-        <v>707</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D182" t="s">
         <v>710</v>
+      </c>
+      <c r="E182" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>711</v>
+      </c>
+      <c r="B183" t="s">
+        <v>112</v>
+      </c>
+      <c r="C183" t="s">
+        <v>712</v>
+      </c>
+      <c r="D183" t="s">
+        <v>713</v>
+      </c>
+      <c r="E183" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>714</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" t="s">
+        <v>715</v>
+      </c>
+      <c r="D184" t="s">
+        <v>716</v>
+      </c>
+      <c r="E184" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>717</v>
+      </c>
+      <c r="B185" t="s">
+        <v>112</v>
+      </c>
+      <c r="C185" t="s">
+        <v>718</v>
+      </c>
+      <c r="D185" t="s">
+        <v>719</v>
+      </c>
+      <c r="E185" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>